--- a/BHEd_MappingSheet.xlsx
+++ b/BHEd_MappingSheet.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="311">
   <si>
     <t>Class Name</t>
   </si>

--- a/BHEd_MappingSheet.xlsx
+++ b/BHEd_MappingSheet.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="311">
   <si>
     <t>Class Name</t>
   </si>
